--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>arrowEdge</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
   <si>
     <t>int</t>
@@ -47,6 +50,9 @@
 3：箭头在框下侧</t>
   </si>
   <si>
+    <t>引导文本描述</t>
+  </si>
+  <si>
     <t>引导样式</t>
   </si>
 </sst>
@@ -55,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -95,15 +101,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,13 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,17 +151,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +176,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,29 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -222,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,7 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +269,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +335,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,73 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,49 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,15 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -492,10 +489,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,9 +498,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,153 +545,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,20 +1061,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9879"/>
+  <dimension ref="A1:D9879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.3666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="26.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,27 +1084,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="206.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="112.5" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:3">
@@ -1106,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -30738,8 +30753,13 @@
       <c r="A9879" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A65413 $A1:$XFD3">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF($A$4:$A$65413,D1)&gt;1,NOT(ISBLANK(D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A65413 A1:C3 E1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65413,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -53,7 +53,16 @@
     <t>引导文本描述</t>
   </si>
   <si>
-    <t>引导样式</t>
+    <t>样式左</t>
+  </si>
+  <si>
+    <t>样式右</t>
+  </si>
+  <si>
+    <t>样式上</t>
+  </si>
+  <si>
+    <t>样式下</t>
   </si>
 </sst>
 </file>
@@ -61,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -99,17 +108,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,11 +144,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,7 +183,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,66 +231,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -269,7 +278,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +398,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,121 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +481,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -483,15 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,30 +558,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -559,152 +568,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,7 +1076,7 @@
   <dimension ref="A1:D9879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1116,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:3">
+    <row r="4" ht="16" customHeight="1" spans="1:4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1126,15 +1138,51 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:4">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:4">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:4">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5"/>
@@ -30753,13 +30801,28 @@
       <c r="A9879" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF($A$4:$A$65413,A5)&gt;1,NOT(ISBLANK(A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF($A$4:$A$65413,A6)&gt;1,NOT(ISBLANK(A6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF($A$4:$A$65413,A7)&gt;1,NOT(ISBLANK(A7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF($A$4:$A$65413,D1)&gt;1,NOT(ISBLANK(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A65413 A1:C3 E1:XFD3">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="A4 A8:A65413 A1:C3 E1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65413,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -22,7 +22,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>arrowEdge</t>
+    <t>arrowAnchor</t>
   </si>
   <si>
     <t>content</t>
@@ -34,20 +34,17 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>标识id</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>箭头位置[索引与触发参考对象组索引相同]
-0：箭头在框左侧
-1：箭头在框右侧
-2：箭头在框上侧
-3：箭头在框下侧</t>
+    <t>箭头锚点[索引与触发参考对象组索引相同]
+3：箭头在框左侧
+5：箭头在框右侧
+1：箭头在框上侧
+7：箭头在框下侧</t>
   </si>
   <si>
     <t>引导文本描述</t>
@@ -71,10 +68,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -117,7 +114,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,28 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,31 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,40 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +281,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +347,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,43 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,67 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,9 +489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +503,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,28 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,159 +560,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,14 +1073,15 @@
   <dimension ref="A1:D9879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.3666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
@@ -1108,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1116,16 +1114,16 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="112.5" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:4">
@@ -1133,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
+      <c r="C4" s="6">
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:4">
@@ -1147,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:4">
@@ -1161,13 +1159,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:4">
@@ -1175,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>content</t>
+  </si>
+  <si>
+    <t>contentWidth</t>
   </si>
   <si>
     <t>int</t>
@@ -50,16 +53,31 @@
     <t>引导文本描述</t>
   </si>
   <si>
+    <t>引导文本宽度</t>
+  </si>
+  <si>
     <t>样式左</t>
+  </si>
+  <si>
+    <t>箭头在右侧</t>
+  </si>
+  <si>
+    <t>样式上</t>
+  </si>
+  <si>
+    <t>箭头在上侧</t>
   </si>
   <si>
     <t>样式右</t>
   </si>
   <si>
-    <t>样式上</t>
+    <t>箭头在左侧</t>
   </si>
   <si>
     <t>样式下</t>
+  </si>
+  <si>
+    <t>箭头在下侧</t>
   </si>
 </sst>
 </file>
@@ -68,10 +86,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -119,21 +137,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -141,15 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,17 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +174,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,15 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +293,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +347,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,43 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,61 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,33 +484,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,25 +515,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,87 +543,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,64 +700,31 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,21 +1088,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9879"/>
+  <dimension ref="A1:E9879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.3666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,89 +1115,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="112.5" spans="1:4">
+    <row r="3" s="3" customFormat="1" ht="112.5" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:4">
+      <c r="E4" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:4">
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:4">
+      <c r="E6" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -30800,12 +30839,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF(#REF!,A5)+COUNTIF($A$4:$A$65413,A5)&gt;1,NOT(ISBLANK(A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF(#REF!,A6)+COUNTIF($A$4:$A$65413,A6)&gt;1,NOT(ISBLANK(A6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30814,14 +30853,14 @@
       <formula>AND(COUNTIF($A$3:$A$3,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF(#REF!,A7)+COUNTIF($A$4:$A$65413,A7)&gt;1,NOT(ISBLANK(A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
+  <conditionalFormatting sqref="A4 A8:A65413 A1:C3 F1:XFD3">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65413,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E3">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF(#REF!,D1)+COUNTIF($A$4:$A$65413,D1)&gt;1,NOT(ISBLANK(D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A8:A65413 A1:C3 E1:XFD3">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65413,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideStyle.xlsx
@@ -50,10 +50,10 @@
 7：箭头在框下侧</t>
   </si>
   <si>
-    <t>引导文本描述</t>
+    <t>文本描述</t>
   </si>
   <si>
-    <t>引导文本宽度</t>
+    <t>文本宽度</t>
   </si>
   <si>
     <t>样式左</t>
@@ -122,8 +122,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,14 +184,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,8 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,87 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +293,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,25 +383,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,139 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,36 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,188 +578,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:E9879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
